--- a/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-mbr-02-01）会員登録情報変更（入力）.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-mbr-02-01）会員登録情報変更（入力）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\12x.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\12x.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2D1177-048D-4374-8C88-78D52AC1E12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9754CC-EF30-4FD7-87EB-AD5AB4D67FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="285" windowWidth="25050" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -1236,16 +1236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>required（必須）、integer（整数）、digits_between（1～4桁）</t>
-    <rPh sb="21" eb="23">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>required（必須）、in（明治、大正、昭和、平成、令和、西暦のいずれか）</t>
     <rPh sb="16" eb="18">
       <t>メイジ</t>
@@ -1274,16 +1264,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>required（必須）、integer（整数）、digits_between（1～11桁）,</t>
-    <rPh sb="21" eb="23">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1688,6 +1668,75 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面定義（補足）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションの修正（phone_number1、phone_number1の記述ミス）</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>required（必須）、integer（整数）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（11桁）,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>required（必須）、integer（整数）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（4桁）</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1699,7 +1748,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1801,6 +1850,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2309,7 +2365,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2382"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2385"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3069,7 +3125,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5368"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5371"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3218,7 +3274,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10388"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10391"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3636,10 +3692,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E2334B-7F3C-498C-87C8-5CCF621D824D}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -3693,9 +3749,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="14">
+        <v>43945</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13">
@@ -4126,9 +4188,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A9:BQ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomLeft" activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -4566,7 +4628,7 @@
     <row r="16" spans="1:59">
       <c r="A16" s="27"/>
       <c r="B16" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -4747,7 +4809,7 @@
     <row r="19" spans="1:69">
       <c r="A19" s="27"/>
       <c r="B19" s="59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
@@ -10545,7 +10607,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F30" s="20"/>
     </row>
@@ -10876,10 +10938,10 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11001,12 +11063,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="20"/>
     </row>
@@ -11045,11 +11107,11 @@
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="20"/>
     </row>
@@ -11070,7 +11132,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>113</v>
@@ -11094,7 +11156,7 @@
         <v>115</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="20"/>
     </row>
@@ -11109,7 +11171,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F16" s="20"/>
     </row>
@@ -11124,10 +11186,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27">
@@ -11141,10 +11203,10 @@
         <v>72</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="27">
@@ -11158,10 +11220,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27">
@@ -11175,10 +11237,10 @@
         <v>74</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27">
@@ -11195,7 +11257,7 @@
         <v>125</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11209,7 +11271,7 @@
         <v>78</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="20"/>
     </row>
@@ -11269,7 +11331,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="20"/>
     </row>
@@ -11314,7 +11376,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29" s="20"/>
     </row>
@@ -11329,7 +11391,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30" s="20"/>
     </row>
@@ -11344,7 +11406,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F31" s="20"/>
     </row>
@@ -11377,7 +11439,7 @@
         <v>125</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27">
@@ -11394,7 +11456,7 @@
         <v>125</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5">
@@ -11408,10 +11470,10 @@
         <v>83</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -11425,7 +11487,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F36" s="20"/>
     </row>
@@ -11495,10 +11557,10 @@
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F41" s="21"/>
     </row>
@@ -11520,13 +11582,13 @@
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" s="20"/>
     </row>
@@ -11548,11 +11610,11 @@
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F45" s="21"/>
     </row>
@@ -11573,14 +11635,14 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F47" s="20"/>
     </row>
@@ -11591,11 +11653,11 @@
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" s="20"/>
     </row>
@@ -11606,11 +11668,11 @@
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F49" s="20"/>
     </row>
@@ -12075,13 +12137,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="49.5" customHeight="1">
@@ -12090,7 +12152,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="69"/>
